--- a/biology/Médecine/Bromazépam/Bromazépam.xlsx
+++ b/biology/Médecine/Bromazépam/Bromazépam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bromaz%C3%A9pam</t>
+          <t>Bromazépam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bromazépam[4],[5] est un médicament anxiolytique appartenant à la classe des benzodiazépines découvert par le laboratoire Roche en 1963[6]. Son développement clinique date des années 1970[7],[8]. C'est un anxiolytique puissant, mais également un hypnotique efficace, avec également des effets amnésiants, myorelaxants (décontracte les muscles) et anticonvulsivants.
+Le bromazépam, est un médicament anxiolytique appartenant à la classe des benzodiazépines découvert par le laboratoire Roche en 1963. Son développement clinique date des années 1970,. C'est un anxiolytique puissant, mais également un hypnotique efficace, avec également des effets amnésiants, myorelaxants (décontracte les muscles) et anticonvulsivants.
 Le bromazépam est commercialisé en France sous le nom de marque Lexomil par les laboratoires Roche mais est dans le domaine public, avec plusieurs génériques. Il est dosé à 6 mg (sauf en Belgique où il est dosé jusqu'à 12 mg) de bromazépam, les comprimés (de 1.5 mg, 3 mg, 6 mg et de 12 mg sont quadrisécable (le comprimé peut être divisé en 4).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bromaz%C3%A9pam</t>
+          <t>Bromazépam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une 1,4 benzodiazépine, possédant un noyau pyridine à la place du cycle aromatique en position 5.
 Elle est substituée en position 7 par un atome de brome, ce qui lui confère des propriétés anxiolytiques. C'est d'ailleurs la seule benzodiazépine bromée mise sur le marché.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bromaz%C3%A9pam</t>
+          <t>Bromazépam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,96 +564,216 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pharmacodynamie
-Comme la plupart des benzodiazépines, le bromazépam est un régulateur positif allostérique des récepteurs aux benzodiazépines (BZD), complexe protéique en relation avec les récepteurs du GABA. Le GABA (acide gamma-aminobutyrique) est un neurotransmetteur inhibiteur, il réduit l'excitabilité du neurone post-synaptique et joue le rôle de dépresseur du système nerveux central.
-En se liant aux récepteurs GABA-BZD, le bromazépam augmente l'affinité du GABA pour ses propres récepteurs. Ainsi, pour une même quantité de GABA libérée, on observera un effet inhibiteur plus important. Le bromazépam fonctionne donc en grande partie en accentuant l'effet d'un neurotransmetteur dépresseur déjà présent dans le système nerveux. Il est, de manière complémentaire, un inhibiteur de recapture de l'adénosine[9]
-Effets secondaires
-Ils sont proportionnels à la dose prise et spécifiques à la benzodiazépine :
-tolérance[10] : l'effet diminue lors d'une utilisation prolongée ;
+          <t>Pharmacodynamie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des benzodiazépines, le bromazépam est un régulateur positif allostérique des récepteurs aux benzodiazépines (BZD), complexe protéique en relation avec les récepteurs du GABA. Le GABA (acide gamma-aminobutyrique) est un neurotransmetteur inhibiteur, il réduit l'excitabilité du neurone post-synaptique et joue le rôle de dépresseur du système nerveux central.
+En se liant aux récepteurs GABA-BZD, le bromazépam augmente l'affinité du GABA pour ses propres récepteurs. Ainsi, pour une même quantité de GABA libérée, on observera un effet inhibiteur plus important. Le bromazépam fonctionne donc en grande partie en accentuant l'effet d'un neurotransmetteur dépresseur déjà présent dans le système nerveux. Il est, de manière complémentaire, un inhibiteur de recapture de l'adénosine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pharmacodynamie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ils sont proportionnels à la dose prise et spécifiques à la benzodiazépine :
+tolérance : l'effet diminue lors d'une utilisation prolongée ;
 désinhibition potentielle, de manière similaire à l'ivresse alcoolique ;
 amnésie antérograde : une personne ne prenant jamais de benzodiazépines a de fortes chances, après un léger surdosage (3 comprimés ou plus), de ne plus avoir aucun souvenir de ce qu'il s'est passé au cours des heures précédentes. Les benzodiazépines à l'action rapide affectent souvent la mémoire épisodique.
 somnolence plus ou moins forte selon les individus ;
 chutes multiples dues à l'effet myorelaxant ;
 Risque d'accumulation si prise quotidienne, du fait de sa demi-vie intermédiaire qui ne permet pas d'éliminer totalement une dose en un jour
-Glaucome
-À haute dose
-Euphorie de courte durée
-Troubles de la mémoire et risque d'amnésie qui est majoré par la prise d'alcool[11]
+Glaucome</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pharmacodynamie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>À haute dose</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Euphorie de courte durée
+Troubles de la mémoire et risque d'amnésie qui est majoré par la prise d'alcool
 Risque de troubles de la personnalité
 Syndrome prolongé de sevrage lors de son arrêt
 Effets paradoxaux (état dépressif, insomnie, nervosité, anxiété, agoraphobie, hyperactivité, agressivité, spasmes et tremblements, cauchemars, etc.)
 Et selon la durée du traitement 
 Risque de dépendance psychique et physique
 Risque de phénomène de sevrage
-Risque de phénomène de rebond
-Pharmacocinétique
-Le bromazépam est une molécule lipophile, et donc de biodisponibilité très élevée par voie orale[12].
-Lors d'une prise orale, la biodisponibilité est de 84 % et le pic de la concentration plasmatique est atteint en moins de 4 heures. Il est métabolisé par des enzymes du sous-groupe Cytochrome P450 en 3-hydroxybromazépam qui se retrouve à hauteur de 27 % dans les urines et le 2-(2-amino-5-bromo-3-hydroxybenzoyl)pyridine qui représente quant à lui 40 %[13]. Il est excrété sous forme inchangé à hauteur de 2 %.
+Risque de phénomène de rebond</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pharmacocinétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bromazépam est une molécule lipophile, et donc de biodisponibilité très élevée par voie orale.
+Lors d'une prise orale, la biodisponibilité est de 84 % et le pic de la concentration plasmatique est atteint en moins de 4 heures. Il est métabolisé par des enzymes du sous-groupe Cytochrome P450 en 3-hydroxybromazépam qui se retrouve à hauteur de 27 % dans les urines et le 2-(2-amino-5-bromo-3-hydroxybenzoyl)pyridine qui représente quant à lui 40 %. Il est excrété sous forme inchangé à hauteur de 2 %.
 Il possède une demi-vie d'élimination modérée (10 à 20 heures).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement de courte durée de forte anxiété ou des attaques de panique : sous toutes ses formes, en particulier réactionnelle et manifestations somatiques associées à l'anxiété en cas de nécessité de traitement par benzodiazépine[14]
-Prémédication pour diminuer l'anxiété avant une chirurgie[15]
-Sevrage alcoolique : prévention et traitement du delirium tremens. À éviter cependant en cas de cirrhose avec insuffisance hépato-cellulaire[16]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traitement de courte durée de forte anxiété ou des attaques de panique : sous toutes ses formes, en particulier réactionnelle et manifestations somatiques associées à l'anxiété en cas de nécessité de traitement par benzodiazépine
+Prémédication pour diminuer l'anxiété avant une chirurgie
+Sevrage alcoolique : prévention et traitement du delirium tremens. À éviter cependant en cas de cirrhose avec insuffisance hépato-cellulaire
 Dans l'insomnie, quand l'utilisation des hypnotiques a échoué
-Comme de nombreuses autres benzodiazépines, le bromazépam est un traitement symptomatique des crises d'angoisse. Pour traiter une dépression, l'emploi du bromazépam, comme de n'importe quelle autre benzodiazépine (excepté l'alprazolam et d'autres triazolo-benzodiazépines)[17],  doit être accompagné d'un traitement de fond de type ISRS ou ISRSNa (antidépresseur Inhibiteur Sélectif de la Recapture de la Sérotonine et de la Noradrénaline). On utilisera en particulier la paroxétine, qui est le seul antidépresseur ayant une AMM dans les troubles anxieux (anxiété sociale) et la phobie sociale[18]. Des thérapies psycho-comportementales sont souvent indiquées pour traiter le fond du problème en complément des médicaments.
+Comme de nombreuses autres benzodiazépines, le bromazépam est un traitement symptomatique des crises d'angoisse. Pour traiter une dépression, l'emploi du bromazépam, comme de n'importe quelle autre benzodiazépine (excepté l'alprazolam et d'autres triazolo-benzodiazépines),  doit être accompagné d'un traitement de fond de type ISRS ou ISRSNa (antidépresseur Inhibiteur Sélectif de la Recapture de la Sérotonine et de la Noradrénaline). On utilisera en particulier la paroxétine, qui est le seul antidépresseur ayant une AMM dans les troubles anxieux (anxiété sociale) et la phobie sociale. Des thérapies psycho-comportementales sont souvent indiquées pour traiter le fond du problème en complément des médicaments.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hypersensibilité au bromazépam
 Insuffisance respiratoire (notamment BPCO)
@@ -649,31 +783,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Précautions d'emploi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prudence si alcoolisme ou autres dépendances
 Chez le sujet présentant un épisode dépressif majeur: le bromazépam doit être accompagné d'un antidépresseur
@@ -683,97 +819,103 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La posologie varie de 1  à   18 mg par jour (jusqu'à 36 mg en milieu hospitalier) et dépend de la pathologie elle-même et du patient. 
-La posologie idéale est d'un comprimé de 6 milligrammes par jour[19], sans usage quotidien, car la demi-vie du bromazépam empêche son élimination complète en une journée.
+La posologie idéale est d'un comprimé de 6 milligrammes par jour, sans usage quotidien, car la demi-vie du bromazépam empêche son élimination complète en une journée.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Statut légal - Durée de prescription</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, seuls le flunitrazépam, la buprénorphine, le clonazépam, le zolpidem et le clorazépate dipotassique sous sa forme à 20 milligrammes sont classés dans les médicaments assimilés aux stupéfiants[20]. La réglementation française[21] repose sur l'arrêté du 7 octobre 1991[22] fixant la liste des substances de la liste I des substances vénéneuses à propriétés hypnotiques et/ou anxiolytiques dont la durée de prescription est réduite. 
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, seuls le flunitrazépam, la buprénorphine, le clonazépam, le zolpidem et le clorazépate dipotassique sous sa forme à 20 milligrammes sont classés dans les médicaments assimilés aux stupéfiants. La réglementation française repose sur l'arrêté du 7 octobre 1991 fixant la liste des substances de la liste I des substances vénéneuses à propriétés hypnotiques et/ou anxiolytiques dont la durée de prescription est réduite. 
 Comme les autres benzodiazépines, le bromazépam figure néanmoins sur la liste des médicaments psychotropes.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bromazépam</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromaz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Arrêt du traitement et sevrage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dépendance que cette molécule entraîne en cas d'utilisation répétée est très forte et induit, à l'arrêt, un syndrome de sevrage aux benzodiazépines, plus ou moins difficile à supporter selon les personnes : fièvre, anxiété intense, insomnies de plusieurs jours, dépersonnalisation, état de manque dans lequel toute la pensée ne vise qu'à obtenir un comprimé, etc.  Le traitement doit être ainsi le plus court possible et la prescription est normalement donnée en cas de crises d'angoisses sévères et répétées et en cas d'un sevrage alcoolique (les benzodiazépines à demi-vie longue comme le diazépam ou à demi-vie courte comme l'oxazépam, cela dépend des médecins, sont des molécules de substitution pour traiter la dépendance à l'alcool)[23].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dépendance que cette molécule entraîne en cas d'utilisation répétée est très forte et induit, à l'arrêt, un syndrome de sevrage aux benzodiazépines, plus ou moins difficile à supporter selon les personnes : fièvre, anxiété intense, insomnies de plusieurs jours, dépersonnalisation, état de manque dans lequel toute la pensée ne vise qu'à obtenir un comprimé, etc.  Le traitement doit être ainsi le plus court possible et la prescription est normalement donnée en cas de crises d'angoisses sévères et répétées et en cas d'un sevrage alcoolique (les benzodiazépines à demi-vie longue comme le diazépam ou à demi-vie courte comme l'oxazépam, cela dépend des médecins, sont des molécules de substitution pour traiter la dépendance à l'alcool).
 </t>
         </is>
       </c>
